--- a/構成図.xlsx
+++ b/構成図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\VSproj\EasySequencer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047A4592-518A-404D-B569-6F168C333418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40B358-61D5-41DE-81EC-D71F02536E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1665" windowWidth="24420" windowHeight="12450" xr2:uid="{28657AE5-CD38-4BFD-A924-D2F2B230AE8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28657AE5-CD38-4BFD-A924-D2F2B230AE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプラー" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -207,123 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -340,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,46 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,13 +290,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>190497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>204797</xdr:rowOff>
@@ -503,13 +350,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>10</xdr:rowOff>
@@ -563,13 +410,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>85720</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>238112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>238120</xdr:rowOff>
@@ -623,13 +470,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>71436</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -647,7 +494,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4833936" y="561975"/>
+          <a:off x="4595811" y="561975"/>
           <a:ext cx="819151" cy="333375"/>
           <a:chOff x="785811" y="561975"/>
           <a:chExt cx="819151" cy="333375"/>
@@ -763,7 +610,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>波形</a:t>
+              <a:t>波形情報</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -773,13 +620,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123817</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>47617</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -797,7 +644,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6315067" y="342900"/>
+          <a:off x="6076942" y="342900"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="2667000" y="1695450"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -926,13 +773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>16454</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>239714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>85528</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>240801</xdr:rowOff>
@@ -985,13 +832,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>46129</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>239577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>128579</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>240801</xdr:rowOff>
@@ -1045,13 +892,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1105,13 +952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>152387</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76187</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1129,7 +976,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5867387" y="3200400"/>
+          <a:off x="5629262" y="3200400"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="1057275" y="1085850"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -1258,13 +1105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>238120</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1319,13 +1166,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238837</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>45171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>239771</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>46770</xdr:rowOff>
@@ -1380,13 +1227,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>153577</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>240800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>176199</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>239714</xdr:rowOff>
@@ -1440,13 +1287,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>119072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>128597</xdr:rowOff>
@@ -1464,7 +1311,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4924424" y="4167197"/>
+          <a:off x="4686299" y="4167197"/>
           <a:ext cx="723902" cy="485775"/>
           <a:chOff x="1738311" y="1409700"/>
           <a:chExt cx="723902" cy="485775"/>
@@ -1586,16 +1433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>233385</xdr:rowOff>
+      <xdr:rowOff>147660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4785</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157185</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1610,9 +1457,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4229100" y="3329010"/>
+          <a:off x="3990975" y="3243285"/>
           <a:ext cx="781050" cy="485775"/>
-          <a:chOff x="1995487" y="971550"/>
+          <a:chOff x="1995487" y="885825"/>
           <a:chExt cx="781050" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -1682,7 +1529,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1995487" y="971550"/>
+            <a:off x="1995487" y="885825"/>
             <a:ext cx="781050" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1742,19 +1589,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポインタ</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -1762,13 +1596,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>190487</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>23</xdr:rowOff>
@@ -1822,13 +1656,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1088</xdr:rowOff>
@@ -1882,13 +1716,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>64086</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
@@ -1950,13 +1784,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>31300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>45171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>147496</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>239705</xdr:rowOff>
@@ -2011,13 +1845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>161920</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>85720</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>200013</xdr:rowOff>
@@ -2035,7 +1869,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6353170" y="2076438"/>
+          <a:off x="6115045" y="2076438"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="2733675" y="3095625"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -2164,13 +1998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>176199</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>64074</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>64087</xdr:rowOff>
@@ -2232,13 +2066,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>176202</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>176214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>64077</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>64089</xdr:rowOff>
@@ -2300,13 +2134,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>128579</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>16454</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
@@ -2368,13 +2202,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -2392,7 +2226,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4233863" y="1633538"/>
+          <a:off x="3995738" y="1633538"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="904875" y="1390650"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -2514,13 +2348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>201611</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>93657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>125411</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>122232</xdr:rowOff>
@@ -2538,7 +2372,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7821611" y="1998657"/>
+          <a:off x="7583486" y="1998657"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="911225" y="1755775"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -2680,13 +2514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>204779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>90479</xdr:rowOff>
@@ -2704,7 +2538,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4243388" y="919154"/>
+          <a:off x="4005263" y="919154"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="914400" y="2343150"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -2826,13 +2660,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>64087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1074</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2886,13 +2720,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>64089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>1077</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2946,13 +2780,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -2970,7 +2804,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4233863" y="1157288"/>
+          <a:off x="3995738" y="1157288"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="904875" y="1390650"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -3129,13 +2963,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -3153,7 +2987,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4233863" y="1395413"/>
+          <a:off x="3995738" y="1395413"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="904875" y="1390650"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -3312,13 +3146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>131761</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>160337</xdr:rowOff>
@@ -3336,7 +3170,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7824786" y="274637"/>
+          <a:off x="7586661" y="274637"/>
           <a:ext cx="641350" cy="361950"/>
           <a:chOff x="923925" y="1460500"/>
           <a:chExt cx="641350" cy="361950"/>
@@ -3495,13 +3329,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>131761</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
@@ -3519,7 +3353,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7824786" y="758825"/>
+          <a:off x="7586661" y="758825"/>
           <a:ext cx="641350" cy="361950"/>
           <a:chOff x="923925" y="1468438"/>
           <a:chExt cx="641350" cy="361950"/>
@@ -3678,13 +3512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>64074</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1087</xdr:rowOff>
@@ -3738,13 +3572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>64077</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1089</xdr:rowOff>
@@ -3798,16 +3632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>214314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>42864</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3822,10 +3656,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4238626" y="452439"/>
-          <a:ext cx="638175" cy="542925"/>
+          <a:off x="4000501" y="452439"/>
+          <a:ext cx="771524" cy="528636"/>
           <a:chOff x="1138238" y="914400"/>
-          <a:chExt cx="638175" cy="542925"/>
+          <a:chExt cx="771524" cy="528636"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3895,7 +3729,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1138238" y="914400"/>
-            <a:ext cx="638175" cy="542925"/>
+            <a:ext cx="771524" cy="528636"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3934,7 +3768,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>波形</a:t>
+              <a:t>波形情報</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -3956,6 +3790,13 @@
               </a:rPr>
               <a:t>ポインタ</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3964,13 +3805,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>201604</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>46039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>125404</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>169864</xdr:rowOff>
@@ -3988,7 +3829,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7821604" y="1712914"/>
+          <a:off x="7583479" y="1712914"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="920750" y="1470025"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -4110,13 +3951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>64086</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204779</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1088</xdr:rowOff>
@@ -4170,13 +4011,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1086</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -4230,13 +4071,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>45634</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>45636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4291,13 +4132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>239636</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>240202</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>84491</xdr:rowOff>
@@ -4352,13 +4193,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>153577</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>239714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>176202</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>240802</xdr:rowOff>
@@ -4412,13 +4253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>76202</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133347</xdr:rowOff>
@@ -4436,7 +4277,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4914902" y="2486022"/>
+          <a:off x="4676777" y="2486022"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="1057275" y="1085850"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -4565,13 +4406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1086</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>47622</xdr:rowOff>
@@ -4626,16 +4467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>233363</xdr:rowOff>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4650,9 +4491,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4233863" y="2614613"/>
+          <a:off x="3995738" y="2528888"/>
           <a:ext cx="976312" cy="485775"/>
-          <a:chOff x="2000250" y="971550"/>
+          <a:chOff x="2000250" y="885825"/>
           <a:chExt cx="976312" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -4722,7 +4563,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2000250" y="971550"/>
+            <a:off x="2000250" y="885825"/>
             <a:ext cx="976312" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4782,19 +4623,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポインタ</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -4802,13 +4630,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>238122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -4862,13 +4690,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
@@ -4886,7 +4714,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5876925" y="4619626"/>
+          <a:off x="5638800" y="4619626"/>
           <a:ext cx="2171699" cy="285750"/>
           <a:chOff x="5705475" y="4914901"/>
           <a:chExt cx="2171699" cy="285750"/>
@@ -5027,13 +4855,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161912</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -5051,7 +4879,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5876912" y="4391026"/>
+          <a:off x="5638787" y="4391026"/>
           <a:ext cx="1843101" cy="266700"/>
           <a:chOff x="5710224" y="4676775"/>
           <a:chExt cx="1843101" cy="285750"/>
@@ -5162,13 +4990,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -5186,7 +5014,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4238625" y="3748087"/>
+          <a:off x="4000500" y="3748087"/>
           <a:ext cx="571500" cy="862013"/>
           <a:chOff x="2005011" y="990600"/>
           <a:chExt cx="571500" cy="862013"/>
@@ -5354,13 +5182,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33339</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>204788</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>10</xdr:rowOff>
@@ -5414,13 +5242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>23574</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76187</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>214561</xdr:rowOff>
@@ -5477,13 +5305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>233363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
@@ -5550,13 +5378,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>23574</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>214561</xdr:rowOff>
@@ -5613,13 +5441,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>233363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>223838</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
@@ -5686,13 +5514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -5710,7 +5538,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5876925" y="4857750"/>
+          <a:off x="5638800" y="4857750"/>
           <a:ext cx="1371601" cy="285750"/>
           <a:chOff x="5705475" y="4914901"/>
           <a:chExt cx="1371601" cy="285750"/>
@@ -5821,13 +5649,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47627</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>238122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
@@ -5882,13 +5710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -5906,7 +5734,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7820025" y="2476500"/>
+          <a:off x="7581900" y="2476500"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="911225" y="1755775"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -6245,7 +6073,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>11685</xdr:colOff>
+      <xdr:colOff>25051</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>150826</xdr:rowOff>
     </xdr:from>
@@ -6253,7 +6081,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>238117</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>224354</xdr:rowOff>
+      <xdr:rowOff>129085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6272,8 +6100,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="964185" y="865201"/>
-          <a:ext cx="702682" cy="311653"/>
+          <a:off x="977551" y="865201"/>
+          <a:ext cx="689316" cy="216384"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6436,13 +6264,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176215</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>176200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>64090</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>64075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6458,7 +6286,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2081215" y="2319325"/>
+          <a:off x="2081215" y="2081200"/>
           <a:ext cx="126000" cy="126000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
@@ -6504,13 +6332,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>64090</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6529,7 +6357,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2207215" y="2382325"/>
+          <a:off x="2207215" y="2144200"/>
           <a:ext cx="619674" cy="1634"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6569,9 +6397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224350</xdr:colOff>
+      <xdr:colOff>214806</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>224360</xdr:rowOff>
+      <xdr:rowOff>124329</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6590,7 +6418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1666867" y="865201"/>
-          <a:ext cx="462483" cy="311659"/>
+          <a:ext cx="452939" cy="211628"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6781,8 +6609,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2734</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>231334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -6807,8 +6635,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2190750" y="2622109"/>
-          <a:ext cx="636139" cy="471934"/>
+          <a:off x="2190750" y="2374459"/>
+          <a:ext cx="636139" cy="719584"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6842,8 +6670,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2740</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -6868,8 +6696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2190750" y="2860240"/>
-          <a:ext cx="636139" cy="233803"/>
+          <a:off x="2190750" y="2612590"/>
+          <a:ext cx="636139" cy="481453"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6901,10 +6729,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>237089</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>875</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16946</xdr:rowOff>
+      <xdr:rowOff>30294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -6929,8 +6757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1665839" y="2636321"/>
-          <a:ext cx="239161" cy="305322"/>
+          <a:off x="1667750" y="2649669"/>
+          <a:ext cx="237250" cy="291974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6965,11 +6793,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16947</xdr:rowOff>
+      <xdr:rowOff>35058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237075</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>861</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84143</xdr:rowOff>
     </xdr:to>
@@ -6990,8 +6818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1905000" y="2636322"/>
-          <a:ext cx="237075" cy="305321"/>
+          <a:off x="1905000" y="2654433"/>
+          <a:ext cx="238986" cy="287210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7031,8 +6859,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10681</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7052,7 +6880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2190750" y="3094043"/>
-          <a:ext cx="636139" cy="488513"/>
+          <a:ext cx="636139" cy="240863"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7147,13 +6975,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176215</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7173,7 +7001,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="271461" y="2381251"/>
+          <a:off x="271461" y="2143126"/>
           <a:ext cx="1809754" cy="1074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7208,13 +7036,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7233,7 +7061,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="3810000"/>
+          <a:off x="2381250" y="3571875"/>
           <a:ext cx="445639" cy="2731"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7268,13 +7096,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7290,7 +7118,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="176211" y="2109788"/>
+          <a:off x="176211" y="1871663"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="895350" y="2343150"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -7560,13 +7388,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>80977</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>228608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>100027</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>228608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7582,7 +7410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1747852" y="3562358"/>
+          <a:off x="1747852" y="3324233"/>
           <a:ext cx="971550" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8002,13 +7830,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8023,7 +7851,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="628650" y="1081088"/>
+          <a:off x="628650" y="1062038"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="2733676" y="3090863"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -8154,8 +7982,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>237872</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -8180,8 +8008,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="952247" y="1666877"/>
-          <a:ext cx="254" cy="176091"/>
+          <a:off x="952247" y="1647827"/>
+          <a:ext cx="254" cy="195141"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8216,13 +8044,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>152403</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>100010</xdr:rowOff>
+      <xdr:rowOff>80960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76203</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>128585</xdr:rowOff>
+      <xdr:rowOff>109535</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8237,7 +8065,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="1343028" y="1052510"/>
+          <a:off x="1343028" y="1033460"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="2733677" y="3119437"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -8367,15 +8195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237084</xdr:colOff>
+      <xdr:colOff>238117</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>150826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238117</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>870</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>219086</xdr:rowOff>
+      <xdr:rowOff>109547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8393,9 +8221,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1665834" y="865201"/>
-          <a:ext cx="1033" cy="306385"/>
+        <a:xfrm>
+          <a:off x="1666867" y="865201"/>
+          <a:ext cx="878" cy="196846"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8430,7 +8258,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>5</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>238123</xdr:rowOff>
+      <xdr:rowOff>219073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -8455,8 +8283,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666880" y="1666873"/>
-          <a:ext cx="1084" cy="176215"/>
+          <a:off x="1666880" y="1647823"/>
+          <a:ext cx="1084" cy="195265"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8489,15 +8317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47634</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57157</xdr:rowOff>
+      <xdr:colOff>33345</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>204794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95258</xdr:colOff>
+      <xdr:colOff>80969</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>166694</xdr:rowOff>
+      <xdr:rowOff>76206</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8512,9 +8340,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="285759" y="1009657"/>
+          <a:off x="271470" y="919169"/>
           <a:ext cx="761999" cy="347662"/>
-          <a:chOff x="276226" y="1466849"/>
+          <a:chOff x="276226" y="1476375"/>
           <a:chExt cx="761999" cy="347662"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -8532,7 +8360,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="923924" y="1628774"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -8584,7 +8412,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="276226" y="1466849"/>
+            <a:off x="276226" y="1476375"/>
             <a:ext cx="761999" cy="347662"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -8634,16 +8462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>237082</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>16957</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>868</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8661,9 +8489,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="951457" y="1207582"/>
-          <a:ext cx="1044" cy="154495"/>
+        <a:xfrm flipH="1">
+          <a:off x="952501" y="1139968"/>
+          <a:ext cx="867" cy="203059"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8696,15 +8524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104784</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52400</xdr:rowOff>
+      <xdr:colOff>100020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28584</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>176225</xdr:rowOff>
+      <xdr:rowOff>76212</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8719,10 +8547,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295409" y="1004900"/>
-          <a:ext cx="638175" cy="361950"/>
-          <a:chOff x="571500" y="1462089"/>
-          <a:chExt cx="638175" cy="361950"/>
+          <a:off x="1290645" y="904887"/>
+          <a:ext cx="533393" cy="361950"/>
+          <a:chOff x="581025" y="1471615"/>
+          <a:chExt cx="533393" cy="361950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8739,7 +8567,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="923925" y="1628775"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -8791,8 +8619,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="571500" y="1462089"/>
-            <a:ext cx="638175" cy="361950"/>
+            <a:off x="581025" y="1471615"/>
+            <a:ext cx="533393" cy="361950"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8841,16 +8669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>237084</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>16961</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5</xdr:colOff>
+      <xdr:colOff>870</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8868,9 +8696,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1665834" y="1207586"/>
-          <a:ext cx="1046" cy="154487"/>
+        <a:xfrm flipH="1">
+          <a:off x="1666880" y="1130447"/>
+          <a:ext cx="865" cy="212576"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8903,15 +8731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66689</xdr:colOff>
+      <xdr:colOff>71437</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57147</xdr:rowOff>
+      <xdr:rowOff>47621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114313</xdr:colOff>
+      <xdr:colOff>95261</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>166684</xdr:rowOff>
+      <xdr:rowOff>157158</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8926,10 +8754,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1019189" y="2438397"/>
-          <a:ext cx="761999" cy="347662"/>
-          <a:chOff x="295275" y="1466851"/>
-          <a:chExt cx="761999" cy="347662"/>
+          <a:off x="1023937" y="2428871"/>
+          <a:ext cx="738199" cy="347662"/>
+          <a:chOff x="314312" y="1476377"/>
+          <a:chExt cx="738199" cy="347662"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8946,7 +8774,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="923925" y="1628775"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -8998,8 +8826,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="295275" y="1466851"/>
-            <a:ext cx="761999" cy="347662"/>
+            <a:off x="314312" y="1476377"/>
+            <a:ext cx="738199" cy="347662"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9048,8 +8876,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>237089</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>875</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
     </xdr:from>
@@ -9057,7 +8885,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1089</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>219071</xdr:rowOff>
+      <xdr:rowOff>200019</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9076,8 +8904,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1665839" y="1969088"/>
-          <a:ext cx="2125" cy="631233"/>
+          <a:off x="1667750" y="1969088"/>
+          <a:ext cx="214" cy="612181"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9110,15 +8938,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190503</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52401</xdr:rowOff>
+      <xdr:colOff>204789</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>195276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200027</xdr:colOff>
+      <xdr:colOff>214315</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>176226</xdr:rowOff>
+      <xdr:rowOff>80976</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9133,10 +8961,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095503" y="1004901"/>
-          <a:ext cx="485774" cy="361950"/>
-          <a:chOff x="895350" y="1462088"/>
-          <a:chExt cx="485774" cy="361950"/>
+          <a:off x="2109789" y="909651"/>
+          <a:ext cx="485776" cy="361950"/>
+          <a:chOff x="923925" y="1471614"/>
+          <a:chExt cx="485776" cy="361950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -9153,7 +8981,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="923925" y="1628775"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -9205,7 +9033,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="895350" y="1462088"/>
+            <a:off x="923927" y="1471614"/>
             <a:ext cx="485774" cy="361950"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -9258,13 +9086,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>100015</xdr:rowOff>
+      <xdr:rowOff>80965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>128590</xdr:rowOff>
+      <xdr:rowOff>109540</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9279,7 +9107,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="1819274" y="1052515"/>
+          <a:off x="1819274" y="1033465"/>
           <a:ext cx="638175" cy="742950"/>
           <a:chOff x="2733677" y="3119436"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -9408,16 +9236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237078</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>16963</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>864</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9435,9 +9263,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2142078" y="1207588"/>
-          <a:ext cx="1048" cy="154489"/>
+        <a:xfrm flipH="1">
+          <a:off x="2143126" y="1135212"/>
+          <a:ext cx="863" cy="207815"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9471,13 +9299,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1090</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>176200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9497,8 +9325,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143126" y="1666877"/>
-          <a:ext cx="1089" cy="652448"/>
+          <a:off x="2143126" y="1647827"/>
+          <a:ext cx="1089" cy="433373"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9531,15 +9359,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>36511</xdr:colOff>
+      <xdr:colOff>176205</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>60323</xdr:rowOff>
+      <xdr:rowOff>55560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84135</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198428</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>169860</xdr:rowOff>
+      <xdr:rowOff>165097</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9554,10 +9382,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1941511" y="2441573"/>
-          <a:ext cx="761999" cy="347662"/>
-          <a:chOff x="760413" y="1470026"/>
-          <a:chExt cx="761999" cy="347662"/>
+          <a:off x="2081205" y="2436810"/>
+          <a:ext cx="498473" cy="347662"/>
+          <a:chOff x="914396" y="1479552"/>
+          <a:chExt cx="498473" cy="347662"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -9574,7 +9402,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="942977" y="1628775"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -9626,8 +9454,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="760413" y="1470026"/>
-            <a:ext cx="761999" cy="347662"/>
+            <a:off x="914396" y="1479552"/>
+            <a:ext cx="498473" cy="347662"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9676,16 +9504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>861</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>64075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1090</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>219072</xdr:rowOff>
+      <xdr:rowOff>204783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9704,8 +9532,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2142075" y="2445325"/>
-          <a:ext cx="2140" cy="154997"/>
+          <a:off x="2143986" y="2207200"/>
+          <a:ext cx="229" cy="378833"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9745,7 +9573,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9766,7 +9594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2190750" y="3094043"/>
-          <a:ext cx="636139" cy="242438"/>
+          <a:ext cx="636139" cy="4313"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9800,13 +9628,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>223393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>134943</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>232918</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9822,10 +9650,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2826889" y="3557143"/>
-          <a:ext cx="879929" cy="485775"/>
+          <a:off x="2826889" y="3319018"/>
+          <a:ext cx="725937" cy="485775"/>
           <a:chOff x="2019300" y="1273175"/>
-          <a:chExt cx="879929" cy="485775"/>
+          <a:chExt cx="725937" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -9894,8 +9722,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2024062" y="1273175"/>
-            <a:ext cx="875167" cy="485775"/>
+            <a:off x="2024063" y="1273175"/>
+            <a:ext cx="721174" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9946,14 +9774,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>229756</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1156</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>229756</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9968,10 +9796,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2826889" y="3325381"/>
-          <a:ext cx="1154561" cy="485775"/>
+          <a:off x="2826889" y="3077731"/>
+          <a:ext cx="783086" cy="485775"/>
           <a:chOff x="2019300" y="957263"/>
-          <a:chExt cx="1154561" cy="485775"/>
+          <a:chExt cx="783086" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -10041,7 +9869,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2027237" y="957263"/>
-            <a:ext cx="1146624" cy="485775"/>
+            <a:ext cx="775149" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10090,7 +9918,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>設定値ポインタ</a:t>
+              <a:t>設定値</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -10107,7 +9935,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>136077</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>170997</xdr:rowOff>
     </xdr:to>
@@ -10125,9 +9953,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2826889" y="1714047"/>
-          <a:ext cx="642938" cy="361950"/>
+          <a:ext cx="525912" cy="361950"/>
           <a:chOff x="923925" y="1468438"/>
-          <a:chExt cx="642938" cy="361950"/>
+          <a:chExt cx="525912" cy="361950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -10196,8 +10024,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="928688" y="1468438"/>
-            <a:ext cx="638175" cy="361950"/>
+            <a:off x="928689" y="1468438"/>
+            <a:ext cx="521148" cy="361950"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10248,13 +10076,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>136077</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>170984</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10270,10 +10098,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2826889" y="2190284"/>
-          <a:ext cx="642938" cy="361950"/>
+          <a:off x="2826889" y="1952159"/>
+          <a:ext cx="535436" cy="361950"/>
           <a:chOff x="923925" y="2420938"/>
-          <a:chExt cx="642938" cy="361950"/>
+          <a:chExt cx="535436" cy="361950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -10343,7 +10171,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="928688" y="2420938"/>
-            <a:ext cx="638175" cy="361950"/>
+            <a:ext cx="530673" cy="361950"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10394,14 +10222,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>204339</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47183</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>128139</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171008</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161483</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10416,7 +10244,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2823714" y="2428433"/>
+          <a:off x="2823714" y="2180783"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="920750" y="1468437"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -10577,14 +10405,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>204339</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47189</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>128139</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171014</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161489</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10599,7 +10427,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2823714" y="2666564"/>
+          <a:off x="2823714" y="2418914"/>
           <a:ext cx="638175" cy="361950"/>
           <a:chOff x="920750" y="1468437"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -10765,7 +10593,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>198443</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36063</xdr:rowOff>
     </xdr:to>
@@ -10783,9 +10611,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2826889" y="445638"/>
-          <a:ext cx="943429" cy="542925"/>
+          <a:ext cx="840237" cy="542925"/>
           <a:chOff x="1152525" y="925512"/>
-          <a:chExt cx="943429" cy="542925"/>
+          <a:chExt cx="840237" cy="542925"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -10854,8 +10682,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1162051" y="925512"/>
-            <a:ext cx="933903" cy="542925"/>
+            <a:off x="1162052" y="925512"/>
+            <a:ext cx="830710" cy="542925"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10894,7 +10722,27 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>波形ポインタ</a:t>
+              <a:t>波形情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ポインタ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -10906,13 +10754,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>228155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>237680</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10928,10 +10776,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2826889" y="3085655"/>
-          <a:ext cx="1221235" cy="485775"/>
+          <a:off x="2826889" y="2847530"/>
+          <a:ext cx="811661" cy="485775"/>
           <a:chOff x="2019300" y="963612"/>
-          <a:chExt cx="1221235" cy="485775"/>
+          <a:chExt cx="811661" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -11001,7 +10849,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2022474" y="963612"/>
-            <a:ext cx="1218061" cy="485775"/>
+            <a:ext cx="808487" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11050,7 +10898,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>設定値ポインタ</a:t>
+              <a:t>設定値</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -11515,13 +11363,145 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="正方形/長方形 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E0CB2A-0B47-4CFB-BC13-D3241C5823B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="476250"/>
+          <a:ext cx="2457450" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="正方形/長方形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A62D8F-F281-469A-A485-5DA2C85D495B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="476250"/>
+          <a:ext cx="2419350" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>190497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>204797</xdr:rowOff>
@@ -11575,13 +11555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>10</xdr:rowOff>
@@ -11635,13 +11615,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>85720</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>238112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>238120</xdr:rowOff>
@@ -11695,13 +11675,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>123817</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>47617</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -11719,8 +11699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6911332" y="338328"/>
-          <a:ext cx="649224" cy="749808"/>
+          <a:off x="6669016" y="338328"/>
+          <a:ext cx="649224" cy="731520"/>
           <a:chOff x="2667000" y="1695450"/>
           <a:chExt cx="638175" cy="742950"/>
         </a:xfrm>
@@ -11848,13 +11828,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47627</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>219063</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1086</xdr:rowOff>
@@ -11907,13 +11887,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>152392</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -11967,13 +11947,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>238123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9</xdr:rowOff>
@@ -12027,13 +12007,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>152387</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76187</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -12051,7 +12031,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5971019" y="3425952"/>
+          <a:off x="5728703" y="3389376"/>
           <a:ext cx="649224" cy="731520"/>
           <a:chOff x="1057275" y="1085850"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -12180,13 +12160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>238120</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -12241,13 +12221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>88486</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>45634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -12302,13 +12282,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>106938</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>239212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>176189</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1086</xdr:rowOff>
@@ -12362,13 +12342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>119072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>128597</xdr:rowOff>
@@ -12386,7 +12366,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5010911" y="4378271"/>
+          <a:off x="4768595" y="4341695"/>
           <a:ext cx="737618" cy="478536"/>
           <a:chOff x="1738311" y="1409700"/>
           <a:chExt cx="723902" cy="485775"/>
@@ -12508,16 +12488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>233385</xdr:rowOff>
+      <xdr:rowOff>147660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4785</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157185</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12532,9 +12512,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4303776" y="3552276"/>
+          <a:off x="4061460" y="3431880"/>
           <a:ext cx="794004" cy="478536"/>
-          <a:chOff x="1995487" y="971550"/>
+          <a:chOff x="1995487" y="885825"/>
           <a:chExt cx="781050" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -12604,7 +12584,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1995487" y="971550"/>
+            <a:off x="1995487" y="885825"/>
             <a:ext cx="781050" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -12664,19 +12644,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポインタ</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -12684,13 +12651,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>190487</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>23</xdr:rowOff>
@@ -12744,13 +12711,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1088</xdr:rowOff>
@@ -12804,13 +12771,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>64086</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
@@ -12872,13 +12839,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>45634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>237515</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>238117</xdr:rowOff>
@@ -12933,13 +12900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>161920</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>171438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>85720</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>200013</xdr:rowOff>
@@ -12957,8 +12924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6949435" y="2299704"/>
-          <a:ext cx="649224" cy="749808"/>
+          <a:off x="6707119" y="2281416"/>
+          <a:ext cx="649224" cy="731520"/>
           <a:chOff x="2733675" y="3095625"/>
           <a:chExt cx="638175" cy="742950"/>
         </a:xfrm>
@@ -13086,13 +13053,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>176189</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>64064</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>59324</xdr:rowOff>
@@ -13154,13 +13121,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>176198</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>176214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>64073</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>64089</xdr:rowOff>
@@ -13222,13 +13189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>219063</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>106938</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>64086</xdr:rowOff>
@@ -13290,13 +13257,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -13314,7 +13281,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4309682" y="1863662"/>
+          <a:off x="4067366" y="1845374"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="904875" y="1390650"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -13436,13 +13403,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>201611</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>93657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>125411</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>122232</xdr:rowOff>
@@ -13460,8 +13427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7959914" y="2223447"/>
-          <a:ext cx="649224" cy="749808"/>
+          <a:off x="7717598" y="2205159"/>
+          <a:ext cx="649224" cy="731520"/>
           <a:chOff x="911225" y="1755775"/>
           <a:chExt cx="638175" cy="742950"/>
         </a:xfrm>
@@ -13602,13 +13569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>204779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>90479</xdr:rowOff>
@@ -13626,7 +13593,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4318826" y="1158422"/>
+          <a:off x="4076510" y="1140134"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="914400" y="2343150"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -13748,13 +13715,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>59324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>1064</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -13808,13 +13775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>64089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>1073</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -13868,13 +13835,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -13892,7 +13859,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4309682" y="1394270"/>
+          <a:off x="4067366" y="1375982"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="904875" y="1390650"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -14051,13 +14018,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -14075,7 +14042,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4309682" y="1628966"/>
+          <a:off x="4067366" y="1610678"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="904875" y="1390650"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -14234,13 +14201,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>131761</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>160337</xdr:rowOff>
@@ -14258,8 +14225,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7963089" y="515048"/>
-          <a:ext cx="652018" cy="365760"/>
+          <a:off x="7720773" y="505904"/>
+          <a:ext cx="652018" cy="356616"/>
           <a:chOff x="923925" y="1460500"/>
           <a:chExt cx="641350" cy="361950"/>
         </a:xfrm>
@@ -14417,13 +14384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>131761</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
@@ -14441,7 +14408,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7963089" y="1001141"/>
+          <a:off x="7720773" y="982853"/>
           <a:ext cx="652018" cy="356616"/>
           <a:chOff x="923925" y="1468438"/>
           <a:chExt cx="641350" cy="361950"/>
@@ -14600,16 +14567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>64086</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102186</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
+      <xdr:rowOff>234449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>85717</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>239212</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14627,9 +14594,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2683461" y="723901"/>
-          <a:ext cx="259756" cy="1086"/>
+        <a:xfrm>
+          <a:off x="6769686" y="710699"/>
+          <a:ext cx="221656" cy="3677"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14660,13 +14627,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>64084</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102184</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1087</xdr:rowOff>
@@ -14688,8 +14655,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2683459" y="1209676"/>
-          <a:ext cx="631241" cy="1086"/>
+          <a:off x="6769684" y="1190626"/>
+          <a:ext cx="593141" cy="1086"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14720,16 +14687,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:rowOff>233363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14744,9 +14711,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4303777" y="699326"/>
-          <a:ext cx="697991" cy="304991"/>
-          <a:chOff x="1128713" y="923926"/>
+          <a:off x="4061461" y="699326"/>
+          <a:ext cx="697991" cy="295847"/>
+          <a:chOff x="1128713" y="933451"/>
           <a:chExt cx="685799" cy="300038"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -14816,7 +14783,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1128713" y="923926"/>
+            <a:off x="1128713" y="933451"/>
             <a:ext cx="685799" cy="300038"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -14866,13 +14833,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>201604</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>46039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>125404</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>169864</xdr:rowOff>
@@ -14890,7 +14857,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7959907" y="1941514"/>
+          <a:off x="7717591" y="1923226"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="920750" y="1470025"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -15012,13 +14979,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>64086</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204779</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1088</xdr:rowOff>
@@ -15072,13 +15039,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>128596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1086</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -15132,13 +15099,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>45634</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>45636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>238112</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -15193,13 +15160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>238117</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>238120</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85712</xdr:rowOff>
@@ -15254,13 +15221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>106938</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>176198</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1089</xdr:rowOff>
@@ -15314,13 +15281,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>76202</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133347</xdr:rowOff>
@@ -15338,7 +15305,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5001770" y="2721861"/>
+          <a:off x="4759454" y="2685285"/>
           <a:ext cx="649224" cy="731520"/>
           <a:chOff x="1057275" y="1085850"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -15467,13 +15434,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1086</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47622</xdr:rowOff>
@@ -15528,16 +15495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>233363</xdr:rowOff>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -15552,9 +15519,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4309682" y="2848166"/>
+          <a:off x="4067366" y="2727770"/>
           <a:ext cx="992314" cy="478536"/>
-          <a:chOff x="2000250" y="971550"/>
+          <a:chOff x="2000250" y="885825"/>
           <a:chExt cx="976312" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -15624,7 +15591,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2000250" y="971550"/>
+            <a:off x="2000250" y="885825"/>
             <a:ext cx="976312" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -15684,19 +15651,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポインタ</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -15704,13 +15658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>238122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -15764,13 +15718,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
@@ -15788,7 +15742,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5980176" y="4824985"/>
+          <a:off x="5737860" y="4788409"/>
           <a:ext cx="2211323" cy="280416"/>
           <a:chOff x="5705475" y="4914901"/>
           <a:chExt cx="2171699" cy="285750"/>
@@ -15929,13 +15883,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161912</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -15953,7 +15907,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5980163" y="4599433"/>
+          <a:off x="5737847" y="4562857"/>
           <a:ext cx="1875867" cy="262128"/>
           <a:chOff x="5710224" y="4676775"/>
           <a:chExt cx="1843101" cy="285750"/>
@@ -16064,13 +16018,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -16088,7 +16042,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4314444" y="3965638"/>
+          <a:off x="4072128" y="3929062"/>
           <a:ext cx="580644" cy="848678"/>
           <a:chOff x="2005011" y="990600"/>
           <a:chExt cx="571500" cy="862013"/>
@@ -16256,13 +16210,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>33339</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>204788</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>10</xdr:rowOff>
@@ -16316,13 +16270,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>23574</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76187</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>214561</xdr:rowOff>
@@ -16348,7 +16302,7 @@
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -18387"/>
+            <a:gd name="adj1" fmla="val -13791"/>
             <a:gd name="adj2" fmla="val 76180"/>
           </a:avLst>
         </a:prstGeom>
@@ -16379,13 +16333,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>233363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
@@ -16452,13 +16406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -16476,7 +16430,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5980176" y="5059680"/>
+          <a:off x="5737860" y="5023104"/>
           <a:ext cx="1395985" cy="280416"/>
           <a:chOff x="5705475" y="4914901"/>
           <a:chExt cx="1371601" cy="285750"/>
@@ -16587,13 +16541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47627</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>238122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
@@ -16648,13 +16602,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -16672,7 +16626,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7958328" y="2712720"/>
+          <a:off x="7716012" y="2676144"/>
           <a:ext cx="649224" cy="731520"/>
           <a:chOff x="911225" y="1755775"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -16794,13 +16748,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -16818,7 +16772,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7289292" y="826008"/>
+          <a:off x="7046976" y="807720"/>
           <a:ext cx="649224" cy="731520"/>
           <a:chOff x="2667000" y="1695450"/>
           <a:chExt cx="638175" cy="742950"/>
@@ -16947,13 +16901,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -17007,13 +16961,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>238121</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80095</xdr:rowOff>
@@ -17070,14 +17024,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>64086</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102186</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>59324</xdr:rowOff>
     </xdr:to>
@@ -17094,135 +17048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2557461" y="657224"/>
-          <a:ext cx="126000" cy="135525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOr">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>64064</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>239212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>239212</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37827D35-34DA-4156-88DE-A1FD8DDA70F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="33" idx="6"/>
-          <a:endCxn id="117" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2207189" y="724987"/>
-          <a:ext cx="350272" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>176209</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>64084</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>64087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="フローチャート: 論理和 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE66078-0945-4965-B274-31766C330D5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2557459" y="1147762"/>
+          <a:off x="6643686" y="647699"/>
           <a:ext cx="126000" cy="126000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOr">
@@ -17266,14 +17092,142 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>64064</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>234449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>234449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37827D35-34DA-4156-88DE-A1FD8DDA70F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="33" idx="6"/>
+          <a:endCxn id="117" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6255314" y="710699"/>
+          <a:ext cx="388372" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214309</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>27</xdr:col>
+      <xdr:colOff>102184</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="フローチャート: 論理和 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE66078-0945-4965-B274-31766C330D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6643684" y="1128712"/>
+          <a:ext cx="126000" cy="126000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOr">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>64073</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>176209</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214309</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1089</xdr:rowOff>
     </xdr:to>
@@ -17294,8 +17248,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2445323" y="1210762"/>
-          <a:ext cx="112136" cy="2"/>
+          <a:off x="6493448" y="1191712"/>
+          <a:ext cx="150236" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17326,13 +17280,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>161927</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>85727</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152408</xdr:rowOff>
@@ -17350,7 +17304,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5010914" y="826008"/>
+          <a:off x="4768598" y="807720"/>
           <a:ext cx="649224" cy="281948"/>
           <a:chOff x="1066800" y="1262054"/>
           <a:chExt cx="638175" cy="285758"/>
@@ -17603,13 +17557,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176215</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>176200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>64090</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>64075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17625,7 +17579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2081215" y="1366825"/>
+          <a:off x="2081215" y="1128700"/>
           <a:ext cx="126000" cy="126000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
@@ -17671,13 +17625,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>64090</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17696,7 +17650,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2207215" y="1429825"/>
+          <a:off x="2207215" y="1191700"/>
           <a:ext cx="619674" cy="1634"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -17732,13 +17686,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>17468</xdr:rowOff>
+      <xdr:rowOff>141293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>55568</xdr:rowOff>
+      <xdr:rowOff>179393</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17753,8 +17707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1571244" y="2391098"/>
-          <a:ext cx="736092" cy="751332"/>
+          <a:off x="1571244" y="2485586"/>
+          <a:ext cx="736092" cy="742188"/>
           <a:chOff x="723900" y="590550"/>
           <a:chExt cx="723900" cy="742950"/>
         </a:xfrm>
@@ -17888,258 +17842,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111741</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="直線矢印コネクタ 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F3A216-615D-4F7C-B8D7-248CCBAB9FF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="101" idx="4"/>
-          <a:endCxn id="156" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2190750" y="1669609"/>
-          <a:ext cx="636139" cy="1061507"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>231340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111741</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線矢印コネクタ 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF7F716-3E87-4863-BCE3-EA7C082E40F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="101" idx="4"/>
-          <a:endCxn id="159" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2190750" y="1898215"/>
-          <a:ext cx="636139" cy="832901"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>237089</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>16946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>203083</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665634AB-CAE2-47F7-9A1A-0263B12AA006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="101" idx="1"/>
-          <a:endCxn id="135" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1665839" y="1921946"/>
-          <a:ext cx="239161" cy="662387"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>16947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>203083</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線矢印コネクタ 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D49DD08-3ED7-40E4-BC66-787E2AC94180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="101" idx="1"/>
-          <a:endCxn id="139" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1905000" y="1921947"/>
-          <a:ext cx="237075" cy="662386"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111741</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>6198</xdr:rowOff>
+      <xdr:rowOff>2692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18157,9 +17867,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="2731116"/>
-          <a:ext cx="636139" cy="132582"/>
+        <a:xfrm flipV="1">
+          <a:off x="2190750" y="2858656"/>
+          <a:ext cx="636139" cy="1536"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18198,7 +17908,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57165</xdr:colOff>
+      <xdr:colOff>15</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2508</xdr:rowOff>
     </xdr:to>
@@ -18219,8 +17929,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="271455" y="952503"/>
-          <a:ext cx="738210" cy="2505"/>
+          <a:off x="271455" y="971553"/>
+          <a:ext cx="681060" cy="2505"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18254,13 +17964,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176215</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18280,7 +17990,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="271461" y="1428751"/>
+          <a:off x="271461" y="1190626"/>
           <a:ext cx="1809754" cy="1074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -18314,7 +18024,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -18340,8 +18050,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="3095625"/>
-          <a:ext cx="445639" cy="2731"/>
+          <a:off x="2438400" y="3095625"/>
+          <a:ext cx="388489" cy="2731"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18375,13 +18085,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -18397,7 +18107,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="180021" y="1159574"/>
+          <a:off x="180021" y="906590"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="895350" y="2343150"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -18543,7 +18253,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="180015" y="722376"/>
+          <a:off x="180015" y="704088"/>
           <a:ext cx="929641" cy="300230"/>
           <a:chOff x="895350" y="2328863"/>
           <a:chExt cx="914401" cy="361950"/>
@@ -18666,13 +18376,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>80977</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>228608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>100027</xdr:colOff>
+      <xdr:colOff>100026</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>228608</xdr:rowOff>
     </xdr:to>
@@ -18689,8 +18399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1747852" y="2847983"/>
-          <a:ext cx="971550" cy="476250"/>
+          <a:off x="1876424" y="2847983"/>
+          <a:ext cx="842977" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18749,13 +18459,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>109552</xdr:colOff>
+      <xdr:colOff>52402</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33352</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214327</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>14294</xdr:rowOff>
     </xdr:to>
@@ -18772,8 +18482,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="927271" y="643800"/>
-          <a:ext cx="473777" cy="649224"/>
+          <a:off x="868597" y="624750"/>
+          <a:ext cx="473777" cy="650748"/>
           <a:chOff x="2819400" y="3100386"/>
           <a:chExt cx="481016" cy="638175"/>
         </a:xfrm>
@@ -18917,7 +18627,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>66690</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
@@ -18944,8 +18654,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314465" y="952503"/>
-          <a:ext cx="290499" cy="1085"/>
+          <a:off x="1257315" y="971553"/>
+          <a:ext cx="347649" cy="1085"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18980,13 +18690,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>197659</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>183353</xdr:rowOff>
+      <xdr:rowOff>164301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>69071</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>230977</xdr:rowOff>
+      <xdr:rowOff>211925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19001,9 +18711,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1413430" y="1372454"/>
+          <a:off x="1413430" y="1335876"/>
           <a:ext cx="353758" cy="751331"/>
-          <a:chOff x="664370" y="1116807"/>
+          <a:chOff x="664370" y="1097755"/>
           <a:chExt cx="347662" cy="761999"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -19020,8 +18730,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="923925" y="1628775"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:off x="909636" y="1619249"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -19073,7 +18783,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="457201" y="1323976"/>
+            <a:off x="457201" y="1304924"/>
             <a:ext cx="761999" cy="347662"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -19123,8 +18833,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>237089</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>875</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>64088</xdr:rowOff>
     </xdr:from>
@@ -19132,7 +18842,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1089</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>219071</xdr:rowOff>
+      <xdr:rowOff>209545</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19151,8 +18861,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1665839" y="1016588"/>
-          <a:ext cx="2125" cy="869358"/>
+          <a:off x="1667750" y="1016588"/>
+          <a:ext cx="214" cy="859832"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19185,15 +18895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>177006</xdr:colOff>
+      <xdr:colOff>196056</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>15079</xdr:rowOff>
+      <xdr:rowOff>10316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>48418</xdr:colOff>
+      <xdr:colOff>67468</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>62703</xdr:rowOff>
+      <xdr:rowOff>57940</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19208,9 +18918,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1876647" y="1440781"/>
+          <a:off x="1896459" y="1418111"/>
           <a:ext cx="353758" cy="751331"/>
-          <a:chOff x="662783" y="1186657"/>
+          <a:chOff x="681833" y="1181894"/>
           <a:chExt cx="347662" cy="761999"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -19227,8 +18937,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="942977" y="1628775"/>
-            <a:ext cx="36000" cy="36000"/>
+            <a:off x="928688" y="1619249"/>
+            <a:ext cx="68400" cy="68400"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
             <a:avLst/>
@@ -19280,7 +18990,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="455614" y="1393826"/>
+            <a:off x="474664" y="1389063"/>
             <a:ext cx="761999" cy="347662"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -19330,16 +19040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>861</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>64075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1090</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>219072</xdr:rowOff>
+      <xdr:rowOff>209546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19358,8 +19068,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2142075" y="1492825"/>
-          <a:ext cx="2140" cy="393122"/>
+          <a:off x="2143986" y="1254700"/>
+          <a:ext cx="229" cy="621721"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19393,14 +19103,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>241167</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111741</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19419,8 +19129,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2190750" y="2622417"/>
-          <a:ext cx="636139" cy="108699"/>
+          <a:off x="2190750" y="2622106"/>
+          <a:ext cx="636139" cy="238086"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19459,7 +19169,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>134943</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>232918</xdr:rowOff>
     </xdr:to>
@@ -19476,10 +19186,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2876800" y="2838958"/>
-          <a:ext cx="895169" cy="478536"/>
+          <a:off x="2876800" y="2802382"/>
+          <a:ext cx="757941" cy="478536"/>
           <a:chOff x="2019300" y="1273175"/>
-          <a:chExt cx="879929" cy="485775"/>
+          <a:chExt cx="744987" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -19548,8 +19258,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2024062" y="1273175"/>
-            <a:ext cx="875167" cy="485775"/>
+            <a:off x="2024063" y="1273175"/>
+            <a:ext cx="740224" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -19601,13 +19311,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>229756</xdr:rowOff>
+      <xdr:rowOff>220231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1156</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>229756</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19622,10 +19332,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2876800" y="2601100"/>
-          <a:ext cx="1175516" cy="487680"/>
+          <a:off x="2876800" y="2564524"/>
+          <a:ext cx="844809" cy="478536"/>
           <a:chOff x="2019300" y="957263"/>
-          <a:chExt cx="1154561" cy="485775"/>
+          <a:chExt cx="830712" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -19694,8 +19404,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2027237" y="957263"/>
-            <a:ext cx="1146624" cy="485775"/>
+            <a:off x="2027238" y="957263"/>
+            <a:ext cx="822774" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -19744,12 +19454,526 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>設定値ポインタ</a:t>
+              <a:t>設定値</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207514</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>237680</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="161" name="グループ化 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FE96E7-D1DC-4C65-9658-5364E58E42CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2876800" y="2337371"/>
+          <a:ext cx="875289" cy="478536"/>
+          <a:chOff x="2019300" y="963612"/>
+          <a:chExt cx="859287" cy="485775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="162" name="フローチャート: 結合子 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D74ADF8-F414-9CC6-2228-E6E8049319C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2019300" y="1181100"/>
+            <a:ext cx="66675" cy="66675"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="正方形/長方形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9323F7FD-BA66-D24E-3F81-F40FA0FCBC36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2022475" y="963612"/>
+            <a:ext cx="856112" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>LFO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>設定値</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>195255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33330</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="164" name="グループ化 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3264BC-FD80-4C14-8749-63AB5DE7F417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="180022" y="2539167"/>
+          <a:ext cx="760287" cy="544068"/>
+          <a:chOff x="1123948" y="911224"/>
+          <a:chExt cx="747714" cy="542925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="フローチャート: 結合子 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDC5E23-8EBC-0A68-5364-1CEC7999EF9F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="1157287"/>
+            <a:ext cx="66675" cy="68400"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="166" name="正方形/長方形 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13671CF4-50D4-776A-C9FD-77682FB49CD6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1123948" y="911224"/>
+            <a:ext cx="747714" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>音色情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ポインタ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB7630B-1945-4E69-8166-BA56E5E1B624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="6"/>
+          <a:endCxn id="101" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="261939" y="2860192"/>
+          <a:ext cx="1357311" cy="1493"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="正方形/長方形 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14701635-C0FE-C870-EC50-9B1D5896B50A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="485774"/>
+          <a:ext cx="1476375" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F2BF8B-E90B-4F40-BF31-6CD13278A864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="485776"/>
+          <a:ext cx="1524000" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -19778,7 +20002,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2876800" y="769167"/>
+          <a:off x="2876800" y="750879"/>
           <a:ext cx="653987" cy="356616"/>
           <a:chOff x="923925" y="1468438"/>
           <a:chExt cx="642938" cy="361950"/>
@@ -19902,13 +20126,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>47159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>136077</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>170984</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19924,7 +20148,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2876800" y="1238546"/>
+          <a:off x="2876800" y="985562"/>
           <a:ext cx="653987" cy="356616"/>
           <a:chOff x="923925" y="2420938"/>
           <a:chExt cx="642938" cy="361950"/>
@@ -20048,13 +20272,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>204339</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>128139</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>171008</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -20070,7 +20294,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2874006" y="1473266"/>
+          <a:off x="2874006" y="1220282"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="920750" y="1468437"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -20231,13 +20455,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>204339</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>37664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>128139</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>161489</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -20253,7 +20477,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2874006" y="1698824"/>
+          <a:off x="2874006" y="1445840"/>
           <a:ext cx="649224" cy="356616"/>
           <a:chOff x="920750" y="1468437"/>
           <a:chExt cx="638175" cy="361950"/>
@@ -20413,397 +20637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207514</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>228155</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>237680</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="161" name="グループ化 160">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FE96E7-D1DC-4C65-9658-5364E58E42CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2876800" y="2355659"/>
-          <a:ext cx="1242571" cy="496824"/>
-          <a:chOff x="2019300" y="963612"/>
-          <a:chExt cx="1221235" cy="485775"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="フローチャート: 結合子 161">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D74ADF8-F414-9CC6-2228-E6E8049319C0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2019300" y="1181100"/>
-            <a:ext cx="66675" cy="66675"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="正方形/長方形 162">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9323F7FD-BA66-D24E-3F81-F40FA0FCBC36}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2022474" y="963612"/>
-            <a:ext cx="1218061" cy="485775"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>LFO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>設定値ポインタ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>147630</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="164" name="グループ化 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3264BC-FD80-4C14-8749-63AB5DE7F417}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="180022" y="2444679"/>
-          <a:ext cx="760287" cy="553212"/>
-          <a:chOff x="1123948" y="911224"/>
-          <a:chExt cx="747714" cy="542925"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="165" name="フローチャート: 結合子 164">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDC5E23-8EBC-0A68-5364-1CEC7999EF9F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1143000" y="1157287"/>
-            <a:ext cx="66675" cy="68400"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="166" name="正方形/長方形 165">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13671CF4-50D4-776A-C9FD-77682FB49CD6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1123948" y="911224"/>
-            <a:ext cx="747714" cy="542925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>音色情報</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポインタ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23814</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113877</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB7630B-1945-4E69-8166-BA56E5E1B624}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="165" idx="6"/>
-          <a:endCxn id="101" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="261939" y="2731116"/>
-          <a:ext cx="1357311" cy="2136"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2035</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -20818,10 +20660,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2878836" y="1886712"/>
-          <a:ext cx="1242571" cy="487680"/>
+          <a:off x="2878836" y="1859280"/>
+          <a:ext cx="804672" cy="478536"/>
           <a:chOff x="2019300" y="963612"/>
-          <a:chExt cx="1221235" cy="485775"/>
+          <a:chExt cx="790575" cy="485775"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -20891,7 +20733,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2022474" y="963612"/>
-            <a:ext cx="1218061" cy="485775"/>
+            <a:ext cx="787401" cy="485775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -20940,16 +20782,260 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665634AB-CAE2-47F7-9A1A-0263B12AA006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="101" idx="1"/>
+          <a:endCxn id="135" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1667750" y="1944820"/>
+          <a:ext cx="237250" cy="761018"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>861</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D49DD08-3ED7-40E4-BC66-787E2AC94180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="101" idx="1"/>
+          <a:endCxn id="139" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="1944821"/>
+          <a:ext cx="238986" cy="761017"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8093</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207514</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F3A216-615D-4F7C-B8D7-248CCBAB9FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="101" idx="4"/>
+          <a:endCxn id="156" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2190750" y="1431484"/>
+          <a:ext cx="636139" cy="1428708"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>231340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207514</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF7F716-3E87-4863-BCE3-EA7C082E40F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="101" idx="4"/>
+          <a:endCxn id="159" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2190750" y="1660090"/>
+          <a:ext cx="636139" cy="1200102"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>231776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111741</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20968,8 +21054,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2190750" y="2151218"/>
-          <a:ext cx="638175" cy="579898"/>
+          <a:off x="2190750" y="2136776"/>
+          <a:ext cx="638175" cy="723416"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -21299,19 +21385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2310393-E5C6-4A42-ADF1-0029C19D8634}">
-  <dimension ref="A2:AG22"/>
+  <dimension ref="A2:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -21320,12 +21406,13 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="O2" s="11"/>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -21335,180 +21422,267 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
+      <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="7"/>
-      <c r="S3" s="6"/>
-      <c r="AG3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="6"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="7"/>
-      <c r="S4" s="6"/>
-      <c r="AG4" s="7"/>
+      <c r="R4" s="6"/>
+      <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="7"/>
-      <c r="S5" s="6"/>
-      <c r="AG5" s="7"/>
+      <c r="R5" s="6"/>
+      <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="7"/>
-      <c r="S6" s="6"/>
-      <c r="AG6" s="7"/>
+      <c r="R6" s="6"/>
+      <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="7"/>
-      <c r="S7" s="6"/>
-      <c r="AG7" s="7"/>
+      <c r="R7" s="6"/>
+      <c r="AF7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="7"/>
-      <c r="S8" s="6"/>
-      <c r="AG8" s="7"/>
+      <c r="R8" s="6"/>
+      <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="7"/>
-      <c r="S9" s="6"/>
-      <c r="AG9" s="7"/>
+      <c r="R9" s="6"/>
+      <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="7"/>
-      <c r="S10" s="6"/>
-      <c r="AG10" s="7"/>
+      <c r="R10" s="6"/>
+      <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="AG11" s="7"/>
+      <c r="R11" s="6"/>
+      <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="7"/>
-      <c r="S12" s="6"/>
-      <c r="AG12" s="7"/>
+      <c r="R12" s="6"/>
+      <c r="AF12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="7"/>
-      <c r="S13" s="6"/>
-      <c r="AG13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="7"/>
-      <c r="S14" s="6"/>
-      <c r="AG14" s="7"/>
+      <c r="R14" s="6"/>
+      <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="7"/>
-      <c r="S15" s="6"/>
-      <c r="AG15" s="7"/>
+      <c r="R15" s="6"/>
+      <c r="AF15" s="7"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="S16" s="6"/>
-      <c r="AG16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="R16" s="6"/>
+      <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="S17" s="6"/>
-      <c r="AG17" s="7"/>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="R17" s="6"/>
+      <c r="AF17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S18" s="6"/>
-      <c r="AG18" s="7"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R18" s="6"/>
+      <c r="AF18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S19" s="6"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="7"/>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R19" s="6"/>
+      <c r="AF19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S20" s="6"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="7"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R20" s="6"/>
+      <c r="AF20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S21" s="6"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="7"/>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R21" s="6"/>
+      <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S22" s="8"/>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R22" s="8"/>
+      <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -21521,8 +21695,7 @@
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="10"/>
+      <c r="AF22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -21534,19 +21707,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F075D1F0-3A52-4B55-A59D-E4D8490E8B7E}">
-  <dimension ref="A2:AG23"/>
+  <dimension ref="A2:AF23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -21555,137 +21728,217 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="O2" s="11"/>
-      <c r="S2" s="20" t="s">
+      <c r="R2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
+      <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B3" s="6"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="S3" s="19" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="R3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AG3" s="7"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="5"/>
+      <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="6"/>
-      <c r="G4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="S4" s="12"/>
-      <c r="AB4" s="13"/>
-      <c r="AG4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="7"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="7"/>
+      <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="S5" s="12"/>
-      <c r="AB5" s="13"/>
-      <c r="AG5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="7"/>
+      <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="S6" s="12"/>
-      <c r="AB6" s="13"/>
-      <c r="AG6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="7"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="7"/>
+      <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="S7" s="12"/>
-      <c r="AB7" s="13"/>
-      <c r="AG7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="7"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="7"/>
+      <c r="AF7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
-      <c r="G8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="S8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AG8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="7"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="7"/>
+      <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
-      <c r="G9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="S9" s="12"/>
-      <c r="AB9" s="13"/>
-      <c r="AG9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="7"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="7"/>
+      <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="16"/>
-      <c r="AG10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="10"/>
+      <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="L11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="AG11" s="7"/>
+      <c r="R11" s="6"/>
+      <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="L12" s="7"/>
-      <c r="S12" s="6"/>
-      <c r="AG12" s="7"/>
+      <c r="R12" s="6"/>
+      <c r="AF12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="L13" s="7"/>
-      <c r="S13" s="6"/>
-      <c r="AG13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -21698,82 +21951,44 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="10"/>
-      <c r="S14" s="6"/>
-      <c r="AG14" s="7"/>
+      <c r="R14" s="6"/>
+      <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S15" s="6"/>
-      <c r="AG15" s="7"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R15" s="6"/>
+      <c r="AF15" s="7"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="S16" s="6"/>
-      <c r="AG16" s="7"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="R16" s="6"/>
+      <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S17" s="6"/>
-      <c r="AG17" s="7"/>
+    <row r="17" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R17" s="6"/>
+      <c r="AF17" s="7"/>
     </row>
-    <row r="18" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S18" s="6"/>
-      <c r="AG18" s="7"/>
+    <row r="18" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R18" s="6"/>
+      <c r="AF18" s="7"/>
     </row>
-    <row r="19" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S19" s="6"/>
-      <c r="AG19" s="7"/>
+    <row r="19" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R19" s="6"/>
+      <c r="AF19" s="7"/>
     </row>
-    <row r="20" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S20" s="6"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="7"/>
+    <row r="20" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R20" s="6"/>
+      <c r="AF20" s="7"/>
     </row>
-    <row r="21" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S21" s="6"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="7"/>
+    <row r="21" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R21" s="6"/>
+      <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S22" s="6"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="7"/>
+    <row r="22" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R22" s="6"/>
+      <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="19:33" x14ac:dyDescent="0.4">
-      <c r="S23" s="8"/>
+    <row r="23" spans="18:32" x14ac:dyDescent="0.4">
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -21786,8 +22001,7 @@
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="10"/>
+      <c r="AF23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
